--- a/public/assets/template/Rekap transaksi.xlsx
+++ b/public/assets/template/Rekap transaksi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahmad\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB3EBD2-6873-4E36-B69C-DFF5EB1A3841}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368286CB-ECA2-4B55-9B50-A55090C0F7A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>LAPORAN TRANSAKSI TOKO MAKSINDO</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Jumlah Barang</t>
+  </si>
+  <si>
+    <t>Posisi Barang</t>
   </si>
   <si>
     <t>Harga Barang</t>
@@ -157,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -165,16 +168,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,98 +479,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="80.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-    </row>
-    <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+    </row>
+    <row r="2" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+    </row>
+    <row r="3" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -625,14 +628,17 @@
       <c r="R4" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>45621</v>
+      <c r="S4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>45620</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -647,14 +653,15 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>45622</v>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>45621</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -669,14 +676,15 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>45623</v>
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>45622</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -691,14 +699,15 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>45624</v>
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>45623</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -713,14 +722,15 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>45625</v>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>45624</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -735,34 +745,13 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>45626</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
+      <c r="S9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A3:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
